--- a/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
+++ b/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
@@ -361,7 +361,7 @@
         </is>
       </c>
       <c r="B16" s="65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
